--- a/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
@@ -2196,34 +2196,34 @@
         <v>26</v>
       </c>
       <c r="C16" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D16" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E16" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F16" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G16" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H16" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I16" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J16" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K16" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L16" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>

--- a/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
@@ -2196,31 +2196,31 @@
         <v>26</v>
       </c>
       <c r="C16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="G16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="J16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="L16" s="15">
         <v>30</v>

--- a/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07A468A-BC60-4261-A847-65AD532C265B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="4392" yWindow="960" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="inputs" sheetId="1" r:id="rId4"/>
-    <sheet name="uPMU sw - more info" sheetId="2" r:id="rId5"/>
-    <sheet name="outputs" sheetId="3" r:id="rId6"/>
+    <sheet name="inputs" sheetId="1" r:id="rId1"/>
+    <sheet name="uPMU sw - more info" sheetId="2" r:id="rId2"/>
+    <sheet name="outputs" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
   <si>
     <t>Register</t>
   </si>
@@ -180,23 +189,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -343,92 +339,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,29 +401,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="fff4cccc"/>
-      <rgbColor rgb="ffb6d7a8"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffb7b7b7"/>
-      <rgbColor rgb="ffcccccc"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFF4CCCC"/>
+      <rgbColor rgb="FFB6D7A8"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFB7B7B7"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -661,7 +681,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -680,7 +700,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,7 +730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -736,7 +756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -762,7 +782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -788,7 +808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -814,7 +834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +860,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,7 +886,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +912,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,7 +938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -931,9 +951,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -950,7 +976,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -969,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +1125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +1151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1229,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,9 +1242,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1232,7 +1264,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1251,7 +1283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1307,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1359,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1411,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1437,7 +1469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1463,7 +1495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1489,7 +1521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1502,67 +1534,76 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="18" width="11.3516" style="1" customWidth="1"/>
-    <col min="19" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
+    <col min="5" max="18" width="11.33203125" style="1" customWidth="1"/>
+    <col min="19" max="256" width="14.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3"/>
@@ -1572,11 +1613,11 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="6">
@@ -1616,11 +1657,11 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="9">
@@ -1633,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>
@@ -1660,11 +1701,11 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="9">
@@ -1704,11 +1745,11 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="13">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="14">
@@ -1748,11 +1789,11 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="14">
@@ -1792,11 +1833,11 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="13">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="14">
@@ -1836,11 +1877,11 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="13">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="14">
@@ -1880,11 +1921,11 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="13">
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="14">
@@ -1924,11 +1965,11 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="13">
+      <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="14">
@@ -1968,11 +2009,11 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="13">
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="14">
@@ -2012,11 +2053,11 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="13">
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="14">
@@ -2056,11 +2097,11 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="13">
+      <c r="B13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="14">
@@ -2100,11 +2141,11 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="13">
+      <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="14">
@@ -2144,11 +2185,11 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="13">
+      <c r="B15" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="14">
@@ -2188,11 +2229,11 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="18">
+      <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="15">
@@ -2223,7 +2264,7 @@
         <v>150</v>
       </c>
       <c r="L16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
@@ -2232,42 +2273,42 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="5">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="D17" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E17" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F17" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G17" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="H17" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="I17" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="J17" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K17" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L17" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -2276,41 +2317,41 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="20">
+      <c r="B18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="I18" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="J18" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="K18" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="L18" t="s" s="20">
+      <c r="C18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="20" t="s">
         <v>29</v>
       </c>
       <c r="M18" s="21"/>
@@ -2320,41 +2361,41 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="20">
+      <c r="B19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H19" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="K19" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="L19" t="s" s="20">
+      <c r="C19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="20" t="s">
         <v>29</v>
       </c>
       <c r="M19" s="21"/>
@@ -2364,41 +2405,41 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="20">
+      <c r="B20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H20" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="I20" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="J20" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="K20" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="L20" t="s" s="20">
+      <c r="C20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="M20" s="21"/>
@@ -2408,41 +2449,41 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="20">
+      <c r="B21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H21" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="I21" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="J21" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="K21" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="L21" t="s" s="20">
+      <c r="C21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="20" t="s">
         <v>29</v>
       </c>
       <c r="M21" s="21"/>
@@ -2452,41 +2493,41 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="20">
+      <c r="B22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="J22" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="K22" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="L22" t="s" s="20">
+      <c r="C22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="20" t="s">
         <v>29</v>
       </c>
       <c r="M22" s="21"/>
@@ -2496,41 +2537,41 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="20">
+      <c r="B23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="H23" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="I23" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="J23" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="K23" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="L23" t="s" s="20">
+      <c r="C23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="20" t="s">
         <v>29</v>
       </c>
       <c r="M23" s="21"/>
@@ -2540,7 +2581,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" ht="13.65" customHeight="1">
+    <row r="24" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -2560,7 +2601,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" ht="13.65" customHeight="1">
+    <row r="25" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2580,7 +2621,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="11"/>
@@ -2600,7 +2641,7 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="11"/>
@@ -2622,7 +2663,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2630,126 +2671,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="23" customWidth="1"/>
-    <col min="3" max="5" width="14.5" style="23" customWidth="1"/>
-    <col min="6" max="256" width="14.5" style="23" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="23" customWidth="1"/>
+    <col min="3" max="256" width="14.44140625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="3"/>
@@ -2757,7 +2797,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2765,109 +2805,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.5" style="24" customWidth="1"/>
+    <col min="1" max="2" width="14.44140625" style="24" customWidth="1"/>
     <col min="3" max="3" width="54" style="24" customWidth="1"/>
-    <col min="4" max="5" width="14.5" style="24" customWidth="1"/>
-    <col min="6" max="256" width="14.5" style="24" customWidth="1"/>
+    <col min="4" max="256" width="14.44140625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="26">
+      <c r="B3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s" s="26">
+      <c r="C3" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="26">
+      <c r="B4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s" s="26">
+      <c r="C4" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2876,7 +2915,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07A468A-BC60-4261-A847-65AD532C265B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA0FD2-D06A-4064-94A6-19CD1C36A7BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="960" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4392" yWindow="960" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>
@@ -2674,7 +2674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA0FD2-D06A-4064-94A6-19CD1C36A7BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE77510F-FC54-4E9B-803A-B40A59F82D9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="960" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -1556,7 +1556,7 @@
   <dimension ref="A1:IV27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>

--- a/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_CILdebug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE77510F-FC54-4E9B-803A-B40A59F82D9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A562D0-BF9A-4791-AE07-6CD522BCE068}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="1308" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>
